--- a/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -19,10 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>NORMALATTACK1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NORMALATTACK2</t>
@@ -32,7 +29,6 @@
   </si>
   <si>
     <t>NORMALTHUMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SKILL1</t>
@@ -63,39 +59,372 @@
   </si>
   <si>
     <t>SKILL10</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,9 +432,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -117,19 +688,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -179,71 +789,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,137 +1071,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="26.625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="6:6">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="6:6">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="6:6">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="6:6">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="6:6">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="6:6">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>SKILL10</t>
+  </si>
+  <si>
+    <t>HeroSkillRef1</t>
   </si>
 </sst>
 </file>
@@ -66,8 +69,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -80,8 +83,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -94,10 +126,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,52 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -170,14 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -193,8 +172,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,24 +219,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,6 +242,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,6 +314,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -300,102 +399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +433,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,11 +468,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,50 +514,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,148 +538,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,12 +1079,12 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="26.625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
@@ -1137,10 +1140,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Property" sheetId="1" r:id="rId1"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+  <si>
+    <t>Id</t>
+  </si>
   <si>
     <t>NORMALATTACK1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NORMALATTACK2</t>
@@ -32,7 +29,6 @@
   </si>
   <si>
     <t>NORMALTHUMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SKILL1</t>
@@ -65,37 +61,406 @@
     <t>SKILL10</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>HeroSkillRef1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,33 +468,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -179,71 +837,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,137 +1119,380 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="26.625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="K8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="L8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="M8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="N8" t="s">
         <v>13</v>
       </c>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+    <row r="9" spans="6:6">
+      <c r="F9" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+    <row r="10" spans="6:6">
+      <c r="F10" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="G4" s="1"/>
+    <row r="11" spans="6:6">
+      <c r="F11" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17" s="1"/>
+    <row r="12" spans="6:6">
+      <c r="F12" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:O6">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -90,12 +90,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -103,6 +103,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -110,10 +161,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,36 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -177,78 +239,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,19 +282,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,168 +462,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -469,35 +476,92 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,21 +577,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +607,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -571,166 +668,181 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1124,7 +1236,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1139,101 +1251,101 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="2" t="b">
@@ -1280,7 +1392,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="b">
@@ -1327,7 +1439,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="b">
@@ -1374,7 +1486,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="b">
@@ -1420,13 +1532,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:1">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:1">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
@@ -1441,10 +1553,10 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H8" t="s">
@@ -1473,16 +1585,16 @@
       </c>
     </row>
     <row r="9" spans="6:6">
-      <c r="F9" s="5"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="6:6">
-      <c r="F10" s="5"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="6:6">
-      <c r="F11" s="5"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="6:6">
-      <c r="F12" s="5"/>
+      <c r="F12" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>Id</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -90,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -117,6 +120,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -124,70 +142,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,11 +203,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,43 +249,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -288,85 +291,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,98 +469,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -515,6 +518,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -548,6 +564,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -577,47 +606,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,7 +629,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,6 +668,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -668,152 +697,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,24 +853,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1233,10 +1268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1251,49 +1286,49 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1348,46 +1383,46 @@
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="b">
+      <c r="B3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1395,46 +1430,46 @@
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="b">
+      <c r="B4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1442,46 +1477,46 @@
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="b">
+      <c r="B5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1489,117 +1524,164 @@
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="b">
+      <c r="B6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:1">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:15">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="10" t="s">
+    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:1">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>8</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>9</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" t="s">
         <v>10</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" t="s">
         <v>11</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N9" t="s">
         <v>13</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="6:6">
-      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="6:6">
-      <c r="F10" s="10"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="6:6">
-      <c r="F11" s="10"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="6:6">
-      <c r="F12" s="10"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:O6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:O6 B7:I7 J7:O7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -91,14 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -112,159 +119,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,194 +139,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -594,251 +264,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -883,58 +311,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1266,26 +652,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:15">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -1379,7 +765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:15">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1426,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:15">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1473,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:15">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1520,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:15">
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1567,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:15">
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -1614,12 +1000,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
@@ -1666,16 +1052,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="6:6">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="6:6">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="6:6">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="6:6">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F13" s="12"/>
     </row>
   </sheetData>
@@ -1685,7 +1071,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/SkillRef.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -99,13 +99,17 @@
   </si>
   <si>
     <t>HeroSkillRef1</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -116,6 +120,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -312,13 +321,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -653,25 +665,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -718,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -765,7 +777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -812,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -859,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -906,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -953,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -1000,74 +1012,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>7</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>8</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>10</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>11</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M10" t="s">
         <v>12</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N10" t="s">
         <v>13</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F13" s="12"/>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F14" s="12"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:O6 B7:I7 J7:O7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:O8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
